--- a/dados/dados_documentos.xlsx
+++ b/dados/dados_documentos.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Documentos\AutomatizadorDocumentos\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECD0141-6DA9-4980-9B2D-81E6CBDD984A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E80FF0-F443-4FC6-BBE8-F27A1EC86AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="0" windowWidth="15375" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
   <si>
     <t>CLIENTE</t>
   </si>
@@ -159,21 +159,12 @@
     <t>60 dias uteis</t>
   </si>
   <si>
-    <t>conforme estiver no empenho</t>
-  </si>
-  <si>
-    <t>seram 12 locais de entrega, sendo que deverá ser observado na ordem de fornecimento.</t>
-  </si>
-  <si>
     <t>30 / 60 dias</t>
   </si>
   <si>
     <t>25 dias úteis</t>
   </si>
   <si>
-    <t>24 horas</t>
-  </si>
-  <si>
     <t>Banco do Brasil</t>
   </si>
   <si>
@@ -262,6 +253,42 @@
   </si>
   <si>
     <t>SSP/MG</t>
+  </si>
+  <si>
+    <t>10 DIAS</t>
+  </si>
+  <si>
+    <t>24 HORAS</t>
+  </si>
+  <si>
+    <t>DIA 21 APÓS A QUIZENA</t>
+  </si>
+  <si>
+    <t>CARTA PROPOSTA</t>
+  </si>
+  <si>
+    <t>NOME_DO_MODELO</t>
+  </si>
+  <si>
+    <t>REPRESENTANTE LEGAL</t>
+  </si>
+  <si>
+    <t>CAMINHO</t>
+  </si>
+  <si>
+    <t>modelosPadrao/</t>
+  </si>
+  <si>
+    <t>DECLARACAO</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>.docx</t>
+  </si>
+  <si>
+    <t>modelosEdital/</t>
   </si>
 </sst>
 </file>
@@ -582,315 +609,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="str">
+        <f>A2&amp;B2&amp;C2</f>
+        <v>modelosPadrao/CARTA PROPOSTA.docx</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="str">
+        <f>A3&amp;B3&amp;C3</f>
+        <v>modelosPadrao/CARTA PROPOSTA.docx</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
         <v>66</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3">
+        <v>9654</v>
+      </c>
+      <c r="U3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="str">
+        <f>A4&amp;B4&amp;C4</f>
+        <v>modelosPadrao/CARTA PROPOSTA.docx</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4">
+        <v>9023546945</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="N4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="str">
+        <f>A5&amp;B5&amp;C5</f>
+        <v>modelosPadrao/CARTA PROPOSTA.docx</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
         <v>72</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5">
+        <v>51258</v>
+      </c>
+      <c r="U5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="str">
+        <f>A6&amp;B6&amp;C6</f>
+        <v>modelosEdital/REPRESENTANTE LEGAL.docx</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6">
+        <v>9023546945</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" t="s">
         <v>76</v>
       </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="R6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="str">
+        <f>A7&amp;B7&amp;C7</f>
+        <v>modelosEdital/REPRESENTANTE LEGAL.docx</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" t="s">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q7" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="T7">
+        <v>51258</v>
+      </c>
+      <c r="U7" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3">
-        <v>9654</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4">
-        <v>9023546945</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5">
-        <v>51258</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dados/dados_documentos.xlsx
+++ b/dados/dados_documentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Documentos\AutomatizadorDocumentos\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E80FF0-F443-4FC6-BBE8-F27A1EC86AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3182D7-D8D5-40C4-AE03-9FA2F5375C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="0" windowWidth="15375" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="525" windowWidth="15375" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -279,9 +279,6 @@
     <t>modelosPadrao/</t>
   </si>
   <si>
-    <t>DECLARACAO</t>
-  </si>
-  <si>
     <t>TYPE</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>modelosEdital/</t>
+  </si>
+  <si>
+    <t>DOCUMENTO</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,10 +646,10 @@
         <v>82</v>
       </c>
       <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
         <v>84</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
       </c>
       <c r="D1" t="s">
         <v>80</v>
@@ -717,10 +717,10 @@
         <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D7" si="0">A2&amp;B2&amp;C2</f>
         <v>modelosPadrao/CARTA PROPOSTA.docx</v>
       </c>
       <c r="E2" t="s">
@@ -786,10 +786,10 @@
         <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>modelosPadrao/CARTA PROPOSTA.docx</v>
       </c>
       <c r="E3" t="s">
@@ -855,10 +855,10 @@
         <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>modelosPadrao/CARTA PROPOSTA.docx</v>
       </c>
       <c r="E4" t="s">
@@ -924,10 +924,10 @@
         <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>modelosPadrao/CARTA PROPOSTA.docx</v>
       </c>
       <c r="E5" t="s">
@@ -987,16 +987,16 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
         <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>modelosEdital/REPRESENTANTE LEGAL.docx</v>
       </c>
       <c r="E6" t="s">
@@ -1056,16 +1056,16 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>modelosEdital/REPRESENTANTE LEGAL.docx</v>
       </c>
       <c r="E7" t="s">

--- a/dados/dados_documentos.xlsx
+++ b/dados/dados_documentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Documentos\AutomatizadorDocumentos\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3182D7-D8D5-40C4-AE03-9FA2F5375C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8D04F5-CB23-400A-9D36-DBB6D7E9E973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="525" windowWidth="15375" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="53">
   <si>
     <t>CLIENTE</t>
   </si>
@@ -84,186 +84,54 @@
     <t>Prefeitura Municipal de Belo Horizonte</t>
   </si>
   <si>
-    <t>Prefeitura Municipal de Contagem</t>
-  </si>
-  <si>
-    <t>Prefeitura Municipal de Esmeraldas</t>
-  </si>
-  <si>
-    <t>Policia Militar de Minas Gerais</t>
-  </si>
-  <si>
     <t>9003/2025</t>
   </si>
   <si>
-    <t>012/2025</t>
-  </si>
-  <si>
-    <t>90010/2025</t>
-  </si>
-  <si>
     <t>Emige Materiais Odontológicos LTDA</t>
   </si>
   <si>
-    <t>Dental Maria</t>
-  </si>
-  <si>
     <t>71.505.564/0001-24</t>
   </si>
   <si>
-    <t>00.000.000/0000-00</t>
-  </si>
-  <si>
-    <t>00.500.000/0001-00</t>
-  </si>
-  <si>
-    <t>01.001.001/0001-01</t>
-  </si>
-  <si>
     <t>Tarciane Vilaça Figueiredo</t>
   </si>
   <si>
-    <t>Bruno Marra</t>
-  </si>
-  <si>
-    <t>Giovanna Melo</t>
-  </si>
-  <si>
-    <t>Regiane Borges</t>
-  </si>
-  <si>
     <t>111.222.333-44</t>
   </si>
   <si>
-    <t>333.444.555-66</t>
-  </si>
-  <si>
-    <t>999.000.111-22</t>
-  </si>
-  <si>
-    <t>555.666.777-88</t>
-  </si>
-  <si>
     <t>60 dias</t>
   </si>
   <si>
-    <t>90 dias</t>
-  </si>
-  <si>
-    <t>180 dias</t>
-  </si>
-  <si>
     <t>30 dias</t>
   </si>
   <si>
-    <t>60 dias uteis</t>
-  </si>
-  <si>
-    <t>30 / 60 dias</t>
-  </si>
-  <si>
-    <t>25 dias úteis</t>
-  </si>
-  <si>
     <t>Banco do Brasil</t>
   </si>
   <si>
-    <t>Caixa Economica</t>
-  </si>
-  <si>
-    <t>Bradesco</t>
-  </si>
-  <si>
-    <t>Unibanco</t>
-  </si>
-  <si>
     <t>0001</t>
   </si>
   <si>
-    <t>46466-1</t>
-  </si>
-  <si>
     <t>8599-4</t>
   </si>
   <si>
-    <t>55155-55</t>
-  </si>
-  <si>
-    <t>11233-44</t>
-  </si>
-  <si>
-    <t>12345875698523156-6</t>
-  </si>
-  <si>
     <t>13/10/2025</t>
   </si>
   <si>
-    <t>01/01/2025</t>
-  </si>
-  <si>
-    <t>25/12/2024</t>
-  </si>
-  <si>
-    <t>01/05/2025</t>
-  </si>
-  <si>
     <t>MG</t>
   </si>
   <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
     <t>Pregão Presencial</t>
   </si>
   <si>
-    <t>Dispensa de Licitação</t>
-  </si>
-  <si>
-    <t>Estimativa</t>
-  </si>
-  <si>
-    <t>Dental Universo</t>
-  </si>
-  <si>
-    <t>Dental BH Brasil</t>
-  </si>
-  <si>
     <t>Rua Ere, nº 34 - Prado - Belo Horizonte MG</t>
   </si>
   <si>
     <t>MG-000.200-48</t>
   </si>
   <si>
-    <t>MG-1.000.200-48</t>
-  </si>
-  <si>
-    <t>MG-000.201.000-48</t>
-  </si>
-  <si>
-    <t>MG-2.000.200-48</t>
-  </si>
-  <si>
     <t>SSP/PR</t>
   </si>
   <si>
-    <t>SSP/MS</t>
-  </si>
-  <si>
-    <t>SSP/MG</t>
-  </si>
-  <si>
-    <t>10 DIAS</t>
-  </si>
-  <si>
-    <t>24 HORAS</t>
-  </si>
-  <si>
-    <t>DIA 21 APÓS A QUIZENA</t>
-  </si>
-  <si>
     <t>CARTA PROPOSTA</t>
   </si>
   <si>
@@ -285,10 +153,37 @@
     <t>.docx</t>
   </si>
   <si>
-    <t>modelosEdital/</t>
-  </si>
-  <si>
     <t>DOCUMENTO</t>
+  </si>
+  <si>
+    <t>ASSINATURA DO CONTRATO</t>
+  </si>
+  <si>
+    <t>DECLARACAO CONJUNTA</t>
+  </si>
+  <si>
+    <t>DECLARACAO DE CUSTOS</t>
+  </si>
+  <si>
+    <t>DECLARACAO DE ENQUADRAMENTO</t>
+  </si>
+  <si>
+    <t>DECLARACAO DE HABILITACAO</t>
+  </si>
+  <si>
+    <t>DECLARACAO DE MENOR</t>
+  </si>
+  <si>
+    <t>DECLARACAO DE PROPOSTA</t>
+  </si>
+  <si>
+    <t>DECLARACAO DE SUSTENTABILIDADE</t>
+  </si>
+  <si>
+    <t>DECLARACAO FATOS SUPERVENIENTES</t>
+  </si>
+  <si>
+    <t>TERMO DE CIENCIA E CONCORDANCIA</t>
   </si>
 </sst>
 </file>
@@ -324,9 +219,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -609,18 +503,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -643,16 +537,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -711,416 +605,830 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D7" si="0">A2&amp;B2&amp;C2</f>
-        <v>modelosPadrao/CARTA PROPOSTA.docx</v>
+        <f t="shared" ref="D2:D13" si="0">A2&amp;B2&amp;C2</f>
+        <v>modelosPadrao/ASSINATURA DO CONTRATO.docx</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="U2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>56</v>
+        <v>28</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
         <v>modelosPadrao/CARTA PROPOSTA.docx</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3">
-        <v>9654</v>
-      </c>
-      <c r="U3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>modelosPadrao/CARTA PROPOSTA.docx</v>
+        <v>modelosPadrao/DECLARACAO CONJUNTA.docx</v>
       </c>
       <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4">
-        <v>9023546945</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="T4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>76</v>
-      </c>
-      <c r="R4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" t="s">
-        <v>54</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>58</v>
+      <c r="V4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>modelosPadrao/CARTA PROPOSTA.docx</v>
+        <v>modelosPadrao/DECLARACAO DE CUSTOS.docx</v>
       </c>
       <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" t="s">
-        <v>42</v>
-      </c>
       <c r="Q5" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="R5" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T5">
-        <v>51258</v>
+        <v>26</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="U5" t="s">
-        <v>55</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>59</v>
+        <v>28</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>modelosEdital/REPRESENTANTE LEGAL.docx</v>
+        <v>modelosPadrao/DECLARACAO DE ENQUADRAMENTO.docx</v>
       </c>
       <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6">
-        <v>9023546945</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="T6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" t="s">
         <v>28</v>
       </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R6" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" t="s">
-        <v>48</v>
-      </c>
-      <c r="T6" t="s">
-        <v>51</v>
-      </c>
-      <c r="U6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>58</v>
+      <c r="V6" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>modelosEdital/REPRESENTANTE LEGAL.docx</v>
+        <v>modelosPadrao/DECLARACAO DE HABILITACAO.docx</v>
       </c>
       <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
         <v>24</v>
       </c>
-      <c r="I7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="Q7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>modelosPadrao/DECLARACAO DE MENOR.docx</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="L7" t="s">
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="M7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" t="s">
-        <v>78</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
         <v>49</v>
       </c>
-      <c r="T7">
-        <v>51258</v>
-      </c>
-      <c r="U7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>59</v>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>modelosPadrao/DECLARACAO DE PROPOSTA.docx</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>modelosPadrao/DECLARACAO DE SUSTENTABILIDADE.docx</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>modelosPadrao/DECLARACAO FATOS SUPERVENIENTES.docx</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>modelosPadrao/REPRESENTANTE LEGAL.docx</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>modelosPadrao/TERMO DE CIENCIA E CONCORDANCIA.docx</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/dados/dados_documentos.xlsx
+++ b/dados/dados_documentos.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Documentos\AutomatizadorDocumentos\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E088F3F-8454-414F-8785-04561C60C656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F04DB3-F1AA-4D96-8382-535680156F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="72">
   <si>
     <t>CAMINHO</t>
   </si>
@@ -130,9 +130,6 @@
     <t>.docx</t>
   </si>
   <si>
-    <t>modelosPadrao\ASSINATURA DO CONTRATO.docx</t>
-  </si>
-  <si>
     <t>Prefeitura Municipal de Belo Horizonte</t>
   </si>
   <si>
@@ -205,85 +202,46 @@
     <t>licitacao5@emigeodonto.com.br</t>
   </si>
   <si>
-    <t>teste1</t>
-  </si>
-  <si>
     <t>CARTA PROPOSTA</t>
   </si>
   <si>
-    <t>modelosPadrao\CARTA PROPOSTA.docx</t>
-  </si>
-  <si>
     <t>DECLARACAO CONJUNTA</t>
   </si>
   <si>
-    <t>modelosPadrao\DECLARACAO CONJUNTA.docx</t>
-  </si>
-  <si>
     <t>DECLARACAO DE CUSTOS</t>
   </si>
   <si>
-    <t>modelosPadrao\DECLARACAO DE CUSTOS.docx</t>
-  </si>
-  <si>
     <t>DECLARACAO DE ENQUADRAMENTO</t>
   </si>
   <si>
-    <t>modelosPadrao\DECLARACAO DE ENQUADRAMENTO.docx</t>
-  </si>
-  <si>
     <t>DECLARACAO DE HABILITACAO</t>
   </si>
   <si>
-    <t>modelosPadrao\DECLARACAO DE HABILITACAO.docx</t>
-  </si>
-  <si>
     <t>DECLARACAO DE MENOR</t>
   </si>
   <si>
-    <t>modelosPadrao\DECLARACAO DE MENOR.docx</t>
-  </si>
-  <si>
     <t>DECLARACAO DE PROPOSTA</t>
   </si>
   <si>
-    <t>modelosPadrao\DECLARACAO DE PROPOSTA.docx</t>
-  </si>
-  <si>
     <t>DECLARACAO DE SUSTENTABILIDADE</t>
   </si>
   <si>
-    <t>modelosPadrao\DECLARACAO DE SUSTENTABILIDADE.docx</t>
-  </si>
-  <si>
     <t>DECLARACAO FATOS SUPERVENIENTES</t>
   </si>
   <si>
-    <t>modelosPadrao\DECLARACAO FATOS SUPERVENIENTES.docx</t>
-  </si>
-  <si>
     <t>REPRESENTANTE LEGAL</t>
   </si>
   <si>
-    <t>modelosPadrao\REPRESENTANTE LEGAL.docx</t>
-  </si>
-  <si>
     <t>TERMO DE CIENCIA E CONCORDANCIA</t>
   </si>
   <si>
-    <t>modelosPadrao\TERMO DE CIENCIA E CONCORDANCIA.docx</t>
-  </si>
-  <si>
-    <t>batatinha</t>
+    <t>asdasdasdad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -333,12 +291,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,13 +598,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AG13" sqref="AG13"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -760,1206 +750,1250 @@
       <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D13" si="0">A2&amp;B2&amp;$C$2</f>
+        <v>modelosPadrao\ASSINATURA DO CONTRATO.docx</v>
+      </c>
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>42</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>43</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>45</v>
       </c>
-      <c r="N2" t="s">
-        <v>46</v>
-      </c>
       <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
         <v>47</v>
       </c>
-      <c r="P2" t="s">
-        <v>48</v>
-      </c>
       <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
         <v>49</v>
       </c>
-      <c r="R2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>50</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>51</v>
       </c>
-      <c r="U2" t="s">
-        <v>52</v>
-      </c>
       <c r="V2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" t="s">
         <v>53</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="2">
-        <v>32994</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>61</v>
+      <c r="AF2">
+        <v>123</v>
       </c>
       <c r="AG2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A14" si="1">IF(B3="","",$A$2)</f>
+        <v>modelosPadrao\</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C14" si="2">IF(D3="","",$C$2)</f>
+        <v>.docx</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>modelosPadrao\CARTA PROPOSTA.docx</v>
       </c>
       <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>41</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>42</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>43</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>44</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>45</v>
       </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
       <c r="O3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" t="s">
         <v>47</v>
       </c>
-      <c r="P3" t="s">
-        <v>48</v>
-      </c>
       <c r="Q3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" t="s">
         <v>49</v>
       </c>
-      <c r="R3" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>50</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>51</v>
       </c>
-      <c r="U3" t="s">
-        <v>52</v>
-      </c>
       <c r="V3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" t="s">
         <v>53</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" t="s">
         <v>54</v>
       </c>
-      <c r="X3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" t="s">
         <v>57</v>
       </c>
-      <c r="AB3" s="2">
-        <v>32994</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>58</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>59</v>
       </c>
-      <c r="AE3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>61</v>
+      <c r="AF3">
+        <v>123</v>
       </c>
       <c r="AG3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
+      <c r="A4" t="str">
+        <f t="shared" si="1"/>
+        <v>modelosPadrao\</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="2"/>
+        <v>.docx</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>modelosPadrao\DECLARACAO CONJUNTA.docx</v>
       </c>
       <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>42</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>43</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>44</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>45</v>
       </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
       <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" t="s">
         <v>47</v>
       </c>
-      <c r="P4" t="s">
-        <v>48</v>
-      </c>
       <c r="Q4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" t="s">
         <v>49</v>
       </c>
-      <c r="R4" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>50</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>51</v>
       </c>
-      <c r="U4" t="s">
-        <v>52</v>
-      </c>
       <c r="V4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" t="s">
         <v>53</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" t="s">
         <v>54</v>
       </c>
-      <c r="X4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>56</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" t="s">
         <v>57</v>
       </c>
-      <c r="AB4" s="2">
-        <v>32994</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>58</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>59</v>
       </c>
-      <c r="AE4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>61</v>
+      <c r="AF4">
+        <v>123</v>
       </c>
       <c r="AG4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
+      <c r="A5" t="str">
+        <f t="shared" si="1"/>
+        <v>modelosPadrao\</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="2"/>
+        <v>.docx</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>modelosPadrao\DECLARACAO DE CUSTOS.docx</v>
       </c>
       <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>43</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>44</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>45</v>
       </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
       <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" t="s">
         <v>47</v>
       </c>
-      <c r="P5" t="s">
-        <v>48</v>
-      </c>
       <c r="Q5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" t="s">
         <v>49</v>
       </c>
-      <c r="R5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>50</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>51</v>
       </c>
-      <c r="U5" t="s">
-        <v>52</v>
-      </c>
       <c r="V5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" t="s">
         <v>53</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" t="s">
         <v>54</v>
       </c>
-      <c r="X5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>55</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>56</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC5" t="s">
         <v>57</v>
       </c>
-      <c r="AB5" s="2">
-        <v>32994</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>58</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>59</v>
       </c>
-      <c r="AE5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>61</v>
+      <c r="AF5">
+        <v>123</v>
       </c>
       <c r="AG5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
+      <c r="A6" t="str">
+        <f t="shared" si="1"/>
+        <v>modelosPadrao\</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="2"/>
+        <v>.docx</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>modelosPadrao\DECLARACAO DE ENQUADRAMENTO.docx</v>
       </c>
       <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>40</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>41</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>42</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>43</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>44</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>45</v>
       </c>
-      <c r="N6" t="s">
-        <v>46</v>
-      </c>
       <c r="O6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" t="s">
         <v>47</v>
       </c>
-      <c r="P6" t="s">
-        <v>48</v>
-      </c>
       <c r="Q6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" t="s">
         <v>49</v>
       </c>
-      <c r="R6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>50</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>51</v>
       </c>
-      <c r="U6" t="s">
-        <v>52</v>
-      </c>
       <c r="V6" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" t="s">
         <v>53</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y6" t="s">
         <v>54</v>
       </c>
-      <c r="X6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>55</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>56</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC6" t="s">
         <v>57</v>
       </c>
-      <c r="AB6" s="2">
-        <v>32994</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>58</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>59</v>
       </c>
-      <c r="AE6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>61</v>
+      <c r="AF6">
+        <v>123</v>
       </c>
       <c r="AG6" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
+      <c r="A7" t="str">
+        <f t="shared" si="1"/>
+        <v>modelosPadrao\</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="2"/>
+        <v>.docx</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>modelosPadrao\DECLARACAO DE HABILITACAO.docx</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" t="s">
+        <v>52</v>
+      </c>
+      <c r="W7" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF7">
+        <v>123</v>
+      </c>
+      <c r="AG7" t="s">
         <v>71</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>49</v>
-      </c>
-      <c r="R7" t="s">
-        <v>49</v>
-      </c>
-      <c r="S7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T7" t="s">
-        <v>51</v>
-      </c>
-      <c r="U7" t="s">
-        <v>52</v>
-      </c>
-      <c r="V7" t="s">
-        <v>53</v>
-      </c>
-      <c r="W7" t="s">
-        <v>54</v>
-      </c>
-      <c r="X7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>32994</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
+      <c r="A8" t="str">
+        <f t="shared" si="1"/>
+        <v>modelosPadrao\</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="2"/>
+        <v>.docx</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>modelosPadrao\DECLARACAO DE MENOR.docx</v>
       </c>
       <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>41</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>42</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>43</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>44</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>45</v>
       </c>
-      <c r="N8" t="s">
-        <v>46</v>
-      </c>
       <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" t="s">
         <v>47</v>
       </c>
-      <c r="P8" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" t="s">
         <v>49</v>
       </c>
-      <c r="R8" t="s">
-        <v>49</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>50</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>51</v>
       </c>
-      <c r="U8" t="s">
-        <v>52</v>
-      </c>
       <c r="V8" t="s">
+        <v>52</v>
+      </c>
+      <c r="W8" t="s">
         <v>53</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" t="s">
         <v>54</v>
       </c>
-      <c r="X8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>55</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC8" t="s">
         <v>57</v>
       </c>
-      <c r="AB8" s="2">
-        <v>32994</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>58</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>59</v>
       </c>
-      <c r="AE8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>61</v>
+      <c r="AF8">
+        <v>123</v>
       </c>
       <c r="AG8" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
+      <c r="A9" t="str">
+        <f t="shared" si="1"/>
+        <v>modelosPadrao\</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
+        <v>66</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="2"/>
+        <v>.docx</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>modelosPadrao\DECLARACAO DE PROPOSTA.docx</v>
       </c>
       <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>38</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>39</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>40</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>41</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>42</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>43</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>44</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>45</v>
       </c>
-      <c r="N9" t="s">
-        <v>46</v>
-      </c>
       <c r="O9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" t="s">
         <v>47</v>
       </c>
-      <c r="P9" t="s">
-        <v>48</v>
-      </c>
       <c r="Q9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" t="s">
         <v>49</v>
       </c>
-      <c r="R9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>50</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>51</v>
       </c>
-      <c r="U9" t="s">
-        <v>52</v>
-      </c>
       <c r="V9" t="s">
+        <v>52</v>
+      </c>
+      <c r="W9" t="s">
         <v>53</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y9" t="s">
         <v>54</v>
       </c>
-      <c r="X9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>55</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>56</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC9" t="s">
         <v>57</v>
       </c>
-      <c r="AB9" s="2">
-        <v>32994</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>58</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>59</v>
       </c>
-      <c r="AE9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>61</v>
+      <c r="AF9">
+        <v>123</v>
       </c>
       <c r="AG9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
+      <c r="A10" t="str">
+        <f t="shared" si="1"/>
+        <v>modelosPadrao\</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="2"/>
+        <v>.docx</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>modelosPadrao\DECLARACAO DE SUSTENTABILIDADE.docx</v>
       </c>
       <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>40</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>41</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>42</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>43</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>44</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>45</v>
       </c>
-      <c r="N10" t="s">
-        <v>46</v>
-      </c>
       <c r="O10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" t="s">
         <v>47</v>
       </c>
-      <c r="P10" t="s">
-        <v>48</v>
-      </c>
       <c r="Q10" t="s">
+        <v>48</v>
+      </c>
+      <c r="R10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" t="s">
         <v>49</v>
       </c>
-      <c r="R10" t="s">
-        <v>49</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>50</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>51</v>
       </c>
-      <c r="U10" t="s">
-        <v>52</v>
-      </c>
       <c r="V10" t="s">
+        <v>52</v>
+      </c>
+      <c r="W10" t="s">
         <v>53</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y10" t="s">
         <v>54</v>
       </c>
-      <c r="X10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>55</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>56</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC10" t="s">
         <v>57</v>
       </c>
-      <c r="AB10" s="2">
-        <v>32994</v>
-      </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>58</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>59</v>
       </c>
-      <c r="AE10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>61</v>
+      <c r="AF10">
+        <v>123</v>
       </c>
       <c r="AG10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
+      <c r="A11" t="str">
+        <f t="shared" si="1"/>
+        <v>modelosPadrao\</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
+        <v>68</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="2"/>
+        <v>.docx</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>modelosPadrao\DECLARACAO FATOS SUPERVENIENTES.docx</v>
       </c>
       <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>39</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>40</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>41</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>42</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>43</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>44</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>45</v>
       </c>
-      <c r="N11" t="s">
-        <v>46</v>
-      </c>
       <c r="O11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" t="s">
         <v>47</v>
       </c>
-      <c r="P11" t="s">
-        <v>48</v>
-      </c>
       <c r="Q11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" t="s">
         <v>49</v>
       </c>
-      <c r="R11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>50</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>51</v>
       </c>
-      <c r="U11" t="s">
-        <v>52</v>
-      </c>
       <c r="V11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W11" t="s">
         <v>53</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y11" t="s">
         <v>54</v>
       </c>
-      <c r="X11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>55</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>56</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC11" t="s">
         <v>57</v>
       </c>
-      <c r="AB11" s="2">
-        <v>32994</v>
-      </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>58</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>59</v>
       </c>
-      <c r="AE11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>61</v>
+      <c r="AF11">
+        <v>123</v>
       </c>
       <c r="AG11" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>33</v>
+      <c r="A12" t="str">
+        <f t="shared" si="1"/>
+        <v>modelosPadrao\</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
+        <v>69</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="2"/>
+        <v>.docx</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>modelosPadrao\REPRESENTANTE LEGAL.docx</v>
       </c>
       <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>38</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>39</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>40</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>41</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>43</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>44</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>45</v>
       </c>
-      <c r="N12" t="s">
-        <v>46</v>
-      </c>
       <c r="O12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" t="s">
         <v>47</v>
       </c>
-      <c r="P12" t="s">
-        <v>48</v>
-      </c>
       <c r="Q12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R12" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" t="s">
         <v>49</v>
       </c>
-      <c r="R12" t="s">
-        <v>49</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>50</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>51</v>
       </c>
-      <c r="U12" t="s">
-        <v>52</v>
-      </c>
       <c r="V12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W12" t="s">
         <v>53</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y12" t="s">
         <v>54</v>
       </c>
-      <c r="X12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>55</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>56</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC12" t="s">
         <v>57</v>
       </c>
-      <c r="AB12" s="2">
-        <v>32994</v>
-      </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>58</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>59</v>
       </c>
-      <c r="AE12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>61</v>
+      <c r="AF12">
+        <v>123</v>
       </c>
       <c r="AG12" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
+      <c r="A13" t="str">
+        <f t="shared" si="1"/>
+        <v>modelosPadrao\</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>83</v>
+        <v>70</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="2"/>
+        <v>.docx</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>modelosPadrao\TERMO DE CIENCIA E CONCORDANCIA.docx</v>
       </c>
       <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>38</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>39</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>40</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>41</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>42</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>43</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>44</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>45</v>
       </c>
-      <c r="N13" t="s">
-        <v>46</v>
-      </c>
       <c r="O13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" t="s">
         <v>47</v>
       </c>
-      <c r="P13" t="s">
-        <v>48</v>
-      </c>
       <c r="Q13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S13" t="s">
         <v>49</v>
       </c>
-      <c r="R13" t="s">
-        <v>49</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>50</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>51</v>
       </c>
-      <c r="U13" t="s">
-        <v>52</v>
-      </c>
       <c r="V13" t="s">
+        <v>52</v>
+      </c>
+      <c r="W13" t="s">
         <v>53</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y13" t="s">
         <v>54</v>
       </c>
-      <c r="X13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>55</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>56</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC13" t="s">
         <v>57</v>
       </c>
-      <c r="AB13" s="2">
-        <v>32994</v>
-      </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>58</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>59</v>
       </c>
-      <c r="AE13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>61</v>
+      <c r="AF13">
+        <v>123</v>
       </c>
       <c r="AG13" t="s">
-        <v>84</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/dados/dados_documentos.xlsx
+++ b/dados/dados_documentos.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Documentos\AutomatizadorDocumentos\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B987B21-C4AE-458F-891F-CD47986D95F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2180D704-FBFF-4D50-A47A-E54504E32386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>CAMINHO</t>
   </si>
@@ -52,25 +52,7 @@
     <t>modelosPadrao\</t>
   </si>
   <si>
-    <t>ASSINATURA DO CONTRATO_DU</t>
-  </si>
-  <si>
     <t>.docx</t>
-  </si>
-  <si>
-    <t>modelosPadrao\ASSINATURA DO CONTRATO_DU.docx</t>
-  </si>
-  <si>
-    <t>PBH</t>
-  </si>
-  <si>
-    <t>90/2025</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>MG</t>
   </si>
 </sst>
 </file>
@@ -434,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +430,7 @@
     <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -486,30 +468,27 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45943</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D2" t="str">
+        <f>A2&amp;B2&amp;C2</f>
+        <v>modelosPadrao\.docx</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="str">
+        <f>A3&amp;B3&amp;C3</f>
+        <v>modelosPadrao\.docx</v>
+      </c>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dados/dados_documentos.xlsx
+++ b/dados/dados_documentos.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Documentos\AutomatizadorDocumentos\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno.marra\Documents\Gerador_De_Documentos\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2180D704-FBFF-4D50-A47A-E54504E32386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC495D7-44EE-4280-A105-2C61C4564289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>CAMINHO</t>
   </si>
@@ -49,16 +49,70 @@
     <t>UF</t>
   </si>
   <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>ORGAO_EXPEDIDOR</t>
+  </si>
+  <si>
+    <t>ENDERECO_FILIAL</t>
+  </si>
+  <si>
+    <t>FILIAL</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>SOCIO</t>
+  </si>
+  <si>
     <t>modelosPadrao\</t>
   </si>
   <si>
+    <t>ASSINATURA DO CONTRATO</t>
+  </si>
+  <si>
     <t>.docx</t>
+  </si>
+  <si>
+    <t>modelosPadrao\ASSINATURA DO CONTRATO.docx</t>
+  </si>
+  <si>
+    <t>pbh</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>CARTA PROPOSTA</t>
+  </si>
+  <si>
+    <t>modelosPadrao\CARTA PROPOSTA.docx</t>
+  </si>
+  <si>
+    <t>DECLARACAO CONJUNTA</t>
+  </si>
+  <si>
+    <t>modelosPadrao\DECLARACAO CONJUNTA.docx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,7 +167,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,26 +470,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +509,177 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="str">
-        <f>A2&amp;B2&amp;C2</f>
-        <v>modelosPadrao\.docx</v>
-      </c>
-      <c r="G2" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45967</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
-        <v>modelosPadrao\.docx</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45967</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45967</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
